--- a/data/pca/factorExposure/factorExposure_2016-06-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-06-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01000923859919736</v>
+        <v>-0.01252957730559008</v>
       </c>
       <c r="C2">
-        <v>0.04982123635251659</v>
+        <v>0.04068000516666707</v>
       </c>
       <c r="D2">
-        <v>-0.0359767629106913</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06199962142803423</v>
+      </c>
+      <c r="E2">
+        <v>-0.07281899594001784</v>
+      </c>
+      <c r="F2">
+        <v>0.05973399680202605</v>
+      </c>
+      <c r="G2">
+        <v>0.03940630724263494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04226913515552265</v>
+        <v>-0.02720413761225399</v>
       </c>
       <c r="C3">
-        <v>0.1205599089212469</v>
+        <v>0.0784416099197104</v>
       </c>
       <c r="D3">
-        <v>-0.09752150448164902</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.08768663635410384</v>
+      </c>
+      <c r="E3">
+        <v>-0.06557959485865256</v>
+      </c>
+      <c r="F3">
+        <v>-0.02471684598271404</v>
+      </c>
+      <c r="G3">
+        <v>-0.03182382012505831</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06020676872798528</v>
+        <v>-0.05739748563072625</v>
       </c>
       <c r="C4">
-        <v>0.06022657029358847</v>
+        <v>0.06412002316269265</v>
       </c>
       <c r="D4">
-        <v>-0.03321150015138601</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06033976011987983</v>
+      </c>
+      <c r="E4">
+        <v>-0.07503472099722425</v>
+      </c>
+      <c r="F4">
+        <v>0.07285653366017956</v>
+      </c>
+      <c r="G4">
+        <v>-0.03848285124824431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03955656399928163</v>
+        <v>-0.03557821866804577</v>
       </c>
       <c r="C6">
-        <v>0.03893945391320653</v>
+        <v>0.0315860408234523</v>
       </c>
       <c r="D6">
-        <v>-0.03036528616647437</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06424592886987666</v>
+      </c>
+      <c r="E6">
+        <v>-0.07749204986342548</v>
+      </c>
+      <c r="F6">
+        <v>0.05062661841070693</v>
+      </c>
+      <c r="G6">
+        <v>-0.02375549620937464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02094939063397495</v>
+        <v>-0.01802437745572327</v>
       </c>
       <c r="C7">
-        <v>0.04450444885822067</v>
+        <v>0.03860710552760118</v>
       </c>
       <c r="D7">
-        <v>0.004460655738723136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03876985658442505</v>
+      </c>
+      <c r="E7">
+        <v>-0.05387747970777509</v>
+      </c>
+      <c r="F7">
+        <v>0.09349721243876256</v>
+      </c>
+      <c r="G7">
+        <v>-0.0122215098644259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.003992692410757623</v>
+        <v>-0.002970757423778651</v>
       </c>
       <c r="C8">
-        <v>0.03136097553873039</v>
+        <v>0.02990293935528024</v>
       </c>
       <c r="D8">
-        <v>-0.02161430136544096</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03191028995691202</v>
+      </c>
+      <c r="E8">
+        <v>-0.05137462047994311</v>
+      </c>
+      <c r="F8">
+        <v>0.03073760799111693</v>
+      </c>
+      <c r="G8">
+        <v>-0.008751436324610505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03305983740562507</v>
+        <v>-0.03662715335443649</v>
       </c>
       <c r="C9">
-        <v>0.04693363758992972</v>
+        <v>0.05131553470499408</v>
       </c>
       <c r="D9">
-        <v>-0.01637352530895042</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04332200879024879</v>
+      </c>
+      <c r="E9">
+        <v>-0.06338348516915542</v>
+      </c>
+      <c r="F9">
+        <v>0.07854119896467281</v>
+      </c>
+      <c r="G9">
+        <v>-0.02495114167079844</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07900759798556879</v>
+        <v>-0.1005636225281418</v>
       </c>
       <c r="C10">
-        <v>-0.1924762360660009</v>
+        <v>-0.1962851929397364</v>
       </c>
       <c r="D10">
-        <v>0.003634441130854656</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.00387478526611489</v>
+      </c>
+      <c r="E10">
+        <v>-0.04602534195471896</v>
+      </c>
+      <c r="F10">
+        <v>0.03419457864178162</v>
+      </c>
+      <c r="G10">
+        <v>-0.01090895480614253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04053869740909612</v>
+        <v>-0.03626132959730131</v>
       </c>
       <c r="C11">
-        <v>0.05546246584688245</v>
+        <v>0.05104566929987567</v>
       </c>
       <c r="D11">
-        <v>-0.01703051259121791</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03511326525604896</v>
+      </c>
+      <c r="E11">
+        <v>-0.02057440011783841</v>
+      </c>
+      <c r="F11">
+        <v>0.06339662730398075</v>
+      </c>
+      <c r="G11">
+        <v>-0.01795856457113557</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.0415994055993283</v>
+        <v>-0.03823719057214071</v>
       </c>
       <c r="C12">
-        <v>0.05004310469676351</v>
+        <v>0.04785846089938536</v>
       </c>
       <c r="D12">
-        <v>-0.005863641101454122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.0286521192973621</v>
+      </c>
+      <c r="E12">
+        <v>-0.02850655555110524</v>
+      </c>
+      <c r="F12">
+        <v>0.06387753300334936</v>
+      </c>
+      <c r="G12">
+        <v>-0.01536149916689519</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01335024649850596</v>
+        <v>-0.01154432606416971</v>
       </c>
       <c r="C13">
-        <v>0.05578654110669858</v>
+        <v>0.04596798686429922</v>
       </c>
       <c r="D13">
-        <v>-0.01750454913349643</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05736946149831375</v>
+      </c>
+      <c r="E13">
+        <v>-0.08925593601429573</v>
+      </c>
+      <c r="F13">
+        <v>0.08615117407098881</v>
+      </c>
+      <c r="G13">
+        <v>-0.02113080588965996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.006479014596082589</v>
+        <v>-0.004462829242130778</v>
       </c>
       <c r="C14">
-        <v>0.03944847278149106</v>
+        <v>0.03377266860046799</v>
       </c>
       <c r="D14">
-        <v>0.01260004040527936</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02541840366553526</v>
+      </c>
+      <c r="E14">
+        <v>-0.04256488090987532</v>
+      </c>
+      <c r="F14">
+        <v>0.08795168310704277</v>
+      </c>
+      <c r="G14">
+        <v>0.001551302316227164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0002395179866427835</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005053882811375891</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.007129247282184149</v>
+      </c>
+      <c r="E15">
+        <v>-0.003013256958699668</v>
+      </c>
+      <c r="F15">
+        <v>0.00578598226501307</v>
+      </c>
+      <c r="G15">
+        <v>5.962517819940969e-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03693464374039208</v>
+        <v>-0.03420364664799682</v>
       </c>
       <c r="C16">
-        <v>0.04863574570317665</v>
+        <v>0.04589753904836928</v>
       </c>
       <c r="D16">
-        <v>-0.01068519191332292</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02844930866837041</v>
+      </c>
+      <c r="E16">
+        <v>-0.03442691033591942</v>
+      </c>
+      <c r="F16">
+        <v>0.0638809915095551</v>
+      </c>
+      <c r="G16">
+        <v>-0.003629561010299937</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02070123992538973</v>
+        <v>-0.0159542575705198</v>
       </c>
       <c r="C19">
-        <v>0.06664387070748484</v>
+        <v>0.05033368213669899</v>
       </c>
       <c r="D19">
-        <v>-0.08128851402104006</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09160066693206605</v>
+      </c>
+      <c r="E19">
+        <v>-0.09963643827519422</v>
+      </c>
+      <c r="F19">
+        <v>0.06319939005370361</v>
+      </c>
+      <c r="G19">
+        <v>0.02503625307720652</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01574674029355999</v>
+        <v>-0.01307869349561163</v>
       </c>
       <c r="C20">
-        <v>0.04969180647678902</v>
+        <v>0.04130438653800946</v>
       </c>
       <c r="D20">
-        <v>-0.01395590570332259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03951634827658958</v>
+      </c>
+      <c r="E20">
+        <v>-0.07234910069046917</v>
+      </c>
+      <c r="F20">
+        <v>0.06962943074992678</v>
+      </c>
+      <c r="G20">
+        <v>-0.007894195482343944</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.009484847404945129</v>
+        <v>-0.008966162381628557</v>
       </c>
       <c r="C21">
-        <v>0.05065220907560126</v>
+        <v>0.04407098700620199</v>
       </c>
       <c r="D21">
-        <v>-0.03657248227727271</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06718689279374214</v>
+      </c>
+      <c r="E21">
+        <v>-0.1089141355343737</v>
+      </c>
+      <c r="F21">
+        <v>0.107084764391838</v>
+      </c>
+      <c r="G21">
+        <v>-0.009260973641176177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.0007537410567736763</v>
+        <v>-0.00275835887600167</v>
       </c>
       <c r="C22">
-        <v>0.0005616838792742429</v>
+        <v>0.02415198565629056</v>
       </c>
       <c r="D22">
-        <v>-0.001546194476950662</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.0404681119603684</v>
+      </c>
+      <c r="E22">
+        <v>-0.0325861772520112</v>
+      </c>
+      <c r="F22">
+        <v>0.009484970154963201</v>
+      </c>
+      <c r="G22">
+        <v>-0.03966910600166785</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.0007592996968948734</v>
+        <v>-0.002830026704276014</v>
       </c>
       <c r="C23">
-        <v>0.0005619680193889185</v>
+        <v>0.02429879241204494</v>
       </c>
       <c r="D23">
-        <v>-0.001553392003568993</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.04013529500177598</v>
+      </c>
+      <c r="E23">
+        <v>-0.03286392615189923</v>
+      </c>
+      <c r="F23">
+        <v>0.009260370146182494</v>
+      </c>
+      <c r="G23">
+        <v>-0.03986951593483891</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03329548688393835</v>
+        <v>-0.03384243183804936</v>
       </c>
       <c r="C24">
-        <v>0.05089437456396694</v>
+        <v>0.05350832487407588</v>
       </c>
       <c r="D24">
-        <v>-0.01055049053928974</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02822025767642471</v>
+      </c>
+      <c r="E24">
+        <v>-0.03478739612691734</v>
+      </c>
+      <c r="F24">
+        <v>0.07017820001522032</v>
+      </c>
+      <c r="G24">
+        <v>-0.01161207642120819</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04693017383069172</v>
+        <v>-0.0437621012194564</v>
       </c>
       <c r="C25">
-        <v>0.06199888495449467</v>
+        <v>0.05761220415643407</v>
       </c>
       <c r="D25">
-        <v>-0.001866435775654328</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02666758145785246</v>
+      </c>
+      <c r="E25">
+        <v>-0.02720945904725685</v>
+      </c>
+      <c r="F25">
+        <v>0.07365326692147363</v>
+      </c>
+      <c r="G25">
+        <v>-0.02880239946221954</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01477652965479989</v>
+        <v>-0.01433934741006497</v>
       </c>
       <c r="C26">
-        <v>0.01933802795640313</v>
+        <v>0.01828972721003344</v>
       </c>
       <c r="D26">
-        <v>0.0007351414043528094</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02474968724445709</v>
+      </c>
+      <c r="E26">
+        <v>-0.04283595880162833</v>
+      </c>
+      <c r="F26">
+        <v>0.06313198109160606</v>
+      </c>
+      <c r="G26">
+        <v>0.01055449150257093</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09543627164597288</v>
+        <v>-0.1360111282475666</v>
       </c>
       <c r="C28">
-        <v>-0.2394882807069403</v>
+        <v>-0.2477761407849834</v>
       </c>
       <c r="D28">
-        <v>0.004843515036751684</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01785120860409068</v>
+      </c>
+      <c r="E28">
+        <v>-0.06200700306679016</v>
+      </c>
+      <c r="F28">
+        <v>0.05293630949125153</v>
+      </c>
+      <c r="G28">
+        <v>-0.02207143575328818</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.006845006490723228</v>
+        <v>-0.005809473304358347</v>
       </c>
       <c r="C29">
-        <v>0.03210554808108722</v>
+        <v>0.0299480084312695</v>
       </c>
       <c r="D29">
-        <v>0.0160189438271801</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01950520648408503</v>
+      </c>
+      <c r="E29">
+        <v>-0.04288070189310955</v>
+      </c>
+      <c r="F29">
+        <v>0.08185157082496829</v>
+      </c>
+      <c r="G29">
+        <v>-0.01176257071631797</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04577237326842983</v>
+        <v>-0.04124291495366185</v>
       </c>
       <c r="C30">
-        <v>0.0637791470318568</v>
+        <v>0.06398795219043904</v>
       </c>
       <c r="D30">
-        <v>-0.0776826090544131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1085688285479071</v>
+      </c>
+      <c r="E30">
+        <v>-0.0663925842447762</v>
+      </c>
+      <c r="F30">
+        <v>0.07910872302117902</v>
+      </c>
+      <c r="G30">
+        <v>0.0116067054862563</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05382311203237744</v>
+        <v>-0.05546714228864951</v>
       </c>
       <c r="C31">
-        <v>0.04073192543128797</v>
+        <v>0.05826176046970013</v>
       </c>
       <c r="D31">
-        <v>0.02846037564051308</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01056909227075799</v>
+      </c>
+      <c r="E31">
+        <v>-0.06534660445866802</v>
+      </c>
+      <c r="F31">
+        <v>0.06330215007573786</v>
+      </c>
+      <c r="G31">
+        <v>-0.04986278905781518</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.001908105322424159</v>
+        <v>-0.004967270383705049</v>
       </c>
       <c r="C32">
-        <v>0.03746238105732849</v>
+        <v>0.03237714146886544</v>
       </c>
       <c r="D32">
-        <v>-0.04280488227889849</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05495204375278082</v>
+      </c>
+      <c r="E32">
+        <v>-0.04675660642520617</v>
+      </c>
+      <c r="F32">
+        <v>0.06297758943716045</v>
+      </c>
+      <c r="G32">
+        <v>0.008119747325932928</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02606325730945639</v>
+        <v>-0.02367996093829931</v>
       </c>
       <c r="C33">
-        <v>0.0617091785221817</v>
+        <v>0.05562876848869864</v>
       </c>
       <c r="D33">
-        <v>-0.04713860268507094</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08042130071986398</v>
+      </c>
+      <c r="E33">
+        <v>-0.07781657874541548</v>
+      </c>
+      <c r="F33">
+        <v>0.1095837777132211</v>
+      </c>
+      <c r="G33">
+        <v>-0.0241547193542654</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04547364428442447</v>
+        <v>-0.04147569589764311</v>
       </c>
       <c r="C34">
-        <v>0.06510650574649979</v>
+        <v>0.06447511427227086</v>
       </c>
       <c r="D34">
-        <v>-0.01533845130385011</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03610558850508087</v>
+      </c>
+      <c r="E34">
+        <v>-0.007726920384188701</v>
+      </c>
+      <c r="F34">
+        <v>0.07621363075095554</v>
+      </c>
+      <c r="G34">
+        <v>-0.0138414554971348</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01387587758043676</v>
+        <v>-0.0133455213219933</v>
       </c>
       <c r="C36">
-        <v>0.01528398629926227</v>
+        <v>0.0129990957105534</v>
       </c>
       <c r="D36">
-        <v>0.001592779651894907</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02700781446371776</v>
+      </c>
+      <c r="E36">
+        <v>-0.05185051459702347</v>
+      </c>
+      <c r="F36">
+        <v>0.06780461621823472</v>
+      </c>
+      <c r="G36">
+        <v>-0.01193390045067932</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02909940631555323</v>
+        <v>-0.02318106108688086</v>
       </c>
       <c r="C38">
-        <v>0.02975431748198894</v>
+        <v>0.02390417854513253</v>
       </c>
       <c r="D38">
-        <v>0.007599965296943205</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02648219351901058</v>
+      </c>
+      <c r="E38">
+        <v>-0.04506864363712072</v>
+      </c>
+      <c r="F38">
+        <v>0.05433735000626282</v>
+      </c>
+      <c r="G38">
+        <v>-0.002948198585093284</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04436442622203403</v>
+        <v>-0.03959344013058296</v>
       </c>
       <c r="C39">
-        <v>0.07003545293276879</v>
+        <v>0.06751546496844797</v>
       </c>
       <c r="D39">
-        <v>-0.02268119803874777</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05532368584241517</v>
+      </c>
+      <c r="E39">
+        <v>-0.0392427431637748</v>
+      </c>
+      <c r="F39">
+        <v>0.08090266599215119</v>
+      </c>
+      <c r="G39">
+        <v>0.01040640275757791</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01305977745371149</v>
+        <v>-0.01352470131282708</v>
       </c>
       <c r="C40">
-        <v>0.05334084547709508</v>
+        <v>0.03963097453057696</v>
       </c>
       <c r="D40">
-        <v>-0.01769244803630951</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03690140408517498</v>
+      </c>
+      <c r="E40">
+        <v>-0.07798182829517815</v>
+      </c>
+      <c r="F40">
+        <v>0.06294444065723583</v>
+      </c>
+      <c r="G40">
+        <v>-0.04080956272638665</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01946598095238311</v>
+        <v>-0.01827904968267013</v>
       </c>
       <c r="C41">
-        <v>0.00780543401665804</v>
+        <v>0.008428243733726474</v>
       </c>
       <c r="D41">
-        <v>0.002538317855009437</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01536761607059068</v>
+      </c>
+      <c r="E41">
+        <v>-0.05127898855408997</v>
+      </c>
+      <c r="F41">
+        <v>0.05825378267243013</v>
+      </c>
+      <c r="G41">
+        <v>-0.004428265136069316</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03591900051640123</v>
+        <v>-0.02828710507229001</v>
       </c>
       <c r="C43">
-        <v>0.02819087756210044</v>
+        <v>0.02268402292614918</v>
       </c>
       <c r="D43">
-        <v>-0.02235530986868561</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04129506259704311</v>
+      </c>
+      <c r="E43">
+        <v>-0.06353223888241719</v>
+      </c>
+      <c r="F43">
+        <v>0.06530936513705472</v>
+      </c>
+      <c r="G43">
+        <v>-0.02350061010926083</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01258842192467688</v>
+        <v>-0.0138162634813023</v>
       </c>
       <c r="C44">
-        <v>0.06743704821731648</v>
+        <v>0.05131217981121566</v>
       </c>
       <c r="D44">
-        <v>-0.01142221617719381</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04093064962908494</v>
+      </c>
+      <c r="E44">
+        <v>-0.08396477914238612</v>
+      </c>
+      <c r="F44">
+        <v>0.06748936360201412</v>
+      </c>
+      <c r="G44">
+        <v>0.00560371917972679</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.006326330856899878</v>
+        <v>-0.008200535912330028</v>
       </c>
       <c r="C46">
-        <v>0.02642255332941739</v>
+        <v>0.02806731718473459</v>
       </c>
       <c r="D46">
-        <v>0.01874923848717444</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01280685763302798</v>
+      </c>
+      <c r="E46">
+        <v>-0.05229449692786375</v>
+      </c>
+      <c r="F46">
+        <v>0.09581810590160778</v>
+      </c>
+      <c r="G46">
+        <v>-0.004910029592567871</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08212532024841539</v>
+        <v>-0.08757879364189709</v>
       </c>
       <c r="C47">
-        <v>0.06941673996277245</v>
+        <v>0.08031447605257781</v>
       </c>
       <c r="D47">
-        <v>0.02806463567780904</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01552060754976156</v>
+      </c>
+      <c r="E47">
+        <v>-0.06962694454434766</v>
+      </c>
+      <c r="F47">
+        <v>0.06909651891791521</v>
+      </c>
+      <c r="G47">
+        <v>-0.05304483373153329</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01775037725148408</v>
+        <v>-0.01574590446928156</v>
       </c>
       <c r="C48">
-        <v>0.01557633249211976</v>
+        <v>0.01737565830662944</v>
       </c>
       <c r="D48">
-        <v>0.01508899283835303</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01677612688997778</v>
+      </c>
+      <c r="E48">
+        <v>-0.06317374771694127</v>
+      </c>
+      <c r="F48">
+        <v>0.08407224148221927</v>
+      </c>
+      <c r="G48">
+        <v>-0.01098385072717021</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.07907162589640952</v>
+        <v>-0.07081200761412092</v>
       </c>
       <c r="C50">
-        <v>0.07564400414699075</v>
+        <v>0.0732806307753233</v>
       </c>
       <c r="D50">
-        <v>0.03042373869398149</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.003052113852627283</v>
+      </c>
+      <c r="E50">
+        <v>-0.07213199512170167</v>
+      </c>
+      <c r="F50">
+        <v>0.04799662653909984</v>
+      </c>
+      <c r="G50">
+        <v>-0.07167582446180888</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01491320848357421</v>
+        <v>-0.01067431818840443</v>
       </c>
       <c r="C51">
-        <v>0.05160777146780562</v>
+        <v>0.03413795324171103</v>
       </c>
       <c r="D51">
-        <v>-0.02786141312181494</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0500957009019873</v>
+      </c>
+      <c r="E51">
+        <v>-0.0417657827993495</v>
+      </c>
+      <c r="F51">
+        <v>0.07106027373970897</v>
+      </c>
+      <c r="G51">
+        <v>0.01840394912725564</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.0800259691034471</v>
+        <v>-0.09360932742968671</v>
       </c>
       <c r="C53">
-        <v>0.0787358391166101</v>
+        <v>0.08791812008425715</v>
       </c>
       <c r="D53">
-        <v>0.04012277754811609</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03946275266253599</v>
+      </c>
+      <c r="E53">
+        <v>-0.06838964715447628</v>
+      </c>
+      <c r="F53">
+        <v>0.07828846525775533</v>
+      </c>
+      <c r="G53">
+        <v>-0.06647039729678787</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03015237474551041</v>
+        <v>-0.02785039966096096</v>
       </c>
       <c r="C54">
-        <v>0.02963207709311244</v>
+        <v>0.0283967019677028</v>
       </c>
       <c r="D54">
-        <v>-0.004168168300955595</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03135836502072348</v>
+      </c>
+      <c r="E54">
+        <v>-0.05042870955597926</v>
+      </c>
+      <c r="F54">
+        <v>0.0926210658277878</v>
+      </c>
+      <c r="G54">
+        <v>-0.01296651422049729</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07374570191762293</v>
+        <v>-0.08497678256868284</v>
       </c>
       <c r="C55">
-        <v>0.05849120782212756</v>
+        <v>0.07036790008740294</v>
       </c>
       <c r="D55">
-        <v>0.04982764084096399</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04793974031717674</v>
+      </c>
+      <c r="E55">
+        <v>-0.05195828749714045</v>
+      </c>
+      <c r="F55">
+        <v>0.05458927961823688</v>
+      </c>
+      <c r="G55">
+        <v>-0.05385188723769845</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1432068794387566</v>
+        <v>-0.1472201735112092</v>
       </c>
       <c r="C56">
-        <v>0.09395782723952878</v>
+        <v>0.1059999879817044</v>
       </c>
       <c r="D56">
-        <v>0.04374191575091482</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0464928657210127</v>
+      </c>
+      <c r="E56">
+        <v>-0.05277658768275532</v>
+      </c>
+      <c r="F56">
+        <v>0.04080868103231258</v>
+      </c>
+      <c r="G56">
+        <v>-0.05925663349514268</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.000536646728662206</v>
+        <v>-0.0001135766332002496</v>
       </c>
       <c r="C57">
-        <v>-0.002397565158496295</v>
+        <v>-0.001295908879307426</v>
       </c>
       <c r="D57">
-        <v>-0.01243660011270775</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01036445613007537</v>
+      </c>
+      <c r="E57">
+        <v>-0.006477858291099345</v>
+      </c>
+      <c r="F57">
+        <v>0.007551534591546205</v>
+      </c>
+      <c r="G57">
+        <v>-0.0001030685182377585</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04735878201751579</v>
+        <v>-0.02878196243534891</v>
       </c>
       <c r="C58">
-        <v>0.03930959602296887</v>
+        <v>0.03248932961352691</v>
       </c>
       <c r="D58">
-        <v>-0.6443116184314038</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4141316830648731</v>
+      </c>
+      <c r="E58">
+        <v>-0.6226620200893518</v>
+      </c>
+      <c r="F58">
+        <v>-0.5765815818354482</v>
+      </c>
+      <c r="G58">
+        <v>0.09790297614396079</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1326071414766256</v>
+        <v>-0.1434076826460132</v>
       </c>
       <c r="C59">
-        <v>-0.1972251971563854</v>
+        <v>-0.1872666223764463</v>
       </c>
       <c r="D59">
-        <v>-0.02049881180929256</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02721655510387898</v>
+      </c>
+      <c r="E59">
+        <v>-0.02517580498267254</v>
+      </c>
+      <c r="F59">
+        <v>0.01979170311150653</v>
+      </c>
+      <c r="G59">
+        <v>0.02928184855632683</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3093696827149073</v>
+        <v>-0.2820707467664667</v>
       </c>
       <c r="C60">
-        <v>0.09893926352288143</v>
+        <v>0.09893431328487978</v>
       </c>
       <c r="D60">
-        <v>-0.1539200185999225</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2239942565887204</v>
+      </c>
+      <c r="E60">
+        <v>0.2770158204855638</v>
+      </c>
+      <c r="F60">
+        <v>-0.08116129252739349</v>
+      </c>
+      <c r="G60">
+        <v>-0.04974626805364118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04199281517600655</v>
+        <v>-0.04066644394376937</v>
       </c>
       <c r="C61">
-        <v>0.06646072369346856</v>
+        <v>0.06296728488880871</v>
       </c>
       <c r="D61">
-        <v>-0.0170725754851839</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04650776467463463</v>
+      </c>
+      <c r="E61">
+        <v>-0.04327060511131606</v>
+      </c>
+      <c r="F61">
+        <v>0.07087821754637896</v>
+      </c>
+      <c r="G61">
+        <v>-0.01466218765552488</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01480678015874651</v>
+        <v>-0.0145101952873841</v>
       </c>
       <c r="C63">
-        <v>0.03300609316294428</v>
+        <v>0.03188305793097492</v>
       </c>
       <c r="D63">
-        <v>0.01095201410759472</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.0200984897782798</v>
+      </c>
+      <c r="E63">
+        <v>-0.05473094947716868</v>
+      </c>
+      <c r="F63">
+        <v>0.06337005816408761</v>
+      </c>
+      <c r="G63">
+        <v>-0.03065612177533116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04826691357760399</v>
+        <v>-0.05579062954683859</v>
       </c>
       <c r="C64">
-        <v>0.04624087348586461</v>
+        <v>0.05564521505150889</v>
       </c>
       <c r="D64">
-        <v>-0.004438902132813637</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.009083474817596596</v>
+      </c>
+      <c r="E64">
+        <v>-0.03706874604847192</v>
+      </c>
+      <c r="F64">
+        <v>0.08240070110668071</v>
+      </c>
+      <c r="G64">
+        <v>-0.01382891006170226</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08647202571774477</v>
+        <v>-0.06955492541106929</v>
       </c>
       <c r="C65">
-        <v>0.03485437943478106</v>
+        <v>0.03275435639200411</v>
       </c>
       <c r="D65">
-        <v>-0.05192446047190413</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08614547187877657</v>
+      </c>
+      <c r="E65">
+        <v>-0.04124437217411936</v>
+      </c>
+      <c r="F65">
+        <v>0.002152345215842051</v>
+      </c>
+      <c r="G65">
+        <v>-0.00109085384753689</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06164640952443413</v>
+        <v>-0.05204979894298738</v>
       </c>
       <c r="C66">
-        <v>0.09895198325676112</v>
+        <v>0.08881167393302472</v>
       </c>
       <c r="D66">
-        <v>-0.04590735507891704</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08222516210978052</v>
+      </c>
+      <c r="E66">
+        <v>-0.04563669905450769</v>
+      </c>
+      <c r="F66">
+        <v>0.08240913037458399</v>
+      </c>
+      <c r="G66">
+        <v>-0.005960424173004233</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05165069636151842</v>
+        <v>-0.04543520625938763</v>
       </c>
       <c r="C67">
-        <v>0.03342261956336878</v>
+        <v>0.02988386138119513</v>
       </c>
       <c r="D67">
-        <v>0.009395205129566106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01309571263413191</v>
+      </c>
+      <c r="E67">
+        <v>-0.02443952138788826</v>
+      </c>
+      <c r="F67">
+        <v>0.0454969946668132</v>
+      </c>
+      <c r="G67">
+        <v>-0.009429449692505414</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1299249464220358</v>
+        <v>-0.1512927685889032</v>
       </c>
       <c r="C68">
-        <v>-0.283224888818165</v>
+        <v>-0.2493398436132705</v>
       </c>
       <c r="D68">
-        <v>0.01065475910060334</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.0169544187563426</v>
+      </c>
+      <c r="E68">
+        <v>-0.04392720909575826</v>
+      </c>
+      <c r="F68">
+        <v>0.01388029019535248</v>
+      </c>
+      <c r="G68">
+        <v>-0.01118810527257038</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.08875690735631971</v>
+        <v>-0.08690047815734485</v>
       </c>
       <c r="C69">
-        <v>0.06848586759511049</v>
+        <v>0.08713375668411967</v>
       </c>
       <c r="D69">
-        <v>0.03797468255048711</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007854717722618317</v>
+      </c>
+      <c r="E69">
+        <v>-0.05287934433717901</v>
+      </c>
+      <c r="F69">
+        <v>0.08712470679683684</v>
+      </c>
+      <c r="G69">
+        <v>-0.03285173779505092</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1186563801579567</v>
+        <v>-0.142655049687453</v>
       </c>
       <c r="C71">
-        <v>-0.2481260862328399</v>
+        <v>-0.2364134950333509</v>
       </c>
       <c r="D71">
-        <v>-0.02363473194899963</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01205637932277624</v>
+      </c>
+      <c r="E71">
+        <v>-0.06734167704090172</v>
+      </c>
+      <c r="F71">
+        <v>0.04877049903602797</v>
+      </c>
+      <c r="G71">
+        <v>-0.0384583754242059</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.08930990237330552</v>
+        <v>-0.09865956337792907</v>
       </c>
       <c r="C72">
-        <v>0.05407570682049753</v>
+        <v>0.05611436451702895</v>
       </c>
       <c r="D72">
-        <v>-0.006127772637944062</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02964399275897679</v>
+      </c>
+      <c r="E72">
+        <v>-0.02150165074831843</v>
+      </c>
+      <c r="F72">
+        <v>0.06767241708318075</v>
+      </c>
+      <c r="G72">
+        <v>-0.03912547715559785</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4082741306265685</v>
+        <v>-0.3468229043870566</v>
       </c>
       <c r="C73">
-        <v>0.06089437582702673</v>
+        <v>0.07357365714376775</v>
       </c>
       <c r="D73">
-        <v>-0.3853266843768455</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4642952172749471</v>
+      </c>
+      <c r="E73">
+        <v>0.4859955897562125</v>
+      </c>
+      <c r="F73">
+        <v>-0.2249149931514199</v>
+      </c>
+      <c r="G73">
+        <v>-0.09953754597389852</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1047339159988966</v>
+        <v>-0.109827583980319</v>
       </c>
       <c r="C74">
-        <v>0.09537410558667082</v>
+        <v>0.09636657588041349</v>
       </c>
       <c r="D74">
-        <v>0.02368358540254627</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.0307476274095979</v>
+      </c>
+      <c r="E74">
+        <v>-0.0683836376845626</v>
+      </c>
+      <c r="F74">
+        <v>0.0383737493432407</v>
+      </c>
+      <c r="G74">
+        <v>-0.07247732899849278</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.252181502123944</v>
+        <v>-0.2575298771311697</v>
       </c>
       <c r="C75">
-        <v>0.103805973269139</v>
+        <v>0.1296934963350216</v>
       </c>
       <c r="D75">
-        <v>0.09410222591864527</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1261658399763886</v>
+      </c>
+      <c r="E75">
+        <v>-0.06724893903515695</v>
+      </c>
+      <c r="F75">
+        <v>0.01766867652056051</v>
+      </c>
+      <c r="G75">
+        <v>-0.07479537788682371</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1113953840216284</v>
+        <v>-0.1265050549990495</v>
       </c>
       <c r="C76">
-        <v>0.09056499408791849</v>
+        <v>0.09927535420855965</v>
       </c>
       <c r="D76">
-        <v>0.05109940871432129</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05738033359417416</v>
+      </c>
+      <c r="E76">
+        <v>-0.08139737214150593</v>
+      </c>
+      <c r="F76">
+        <v>0.06135903028820836</v>
+      </c>
+      <c r="G76">
+        <v>-0.057696335428269</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07663703869691865</v>
+        <v>-0.06068646862399951</v>
       </c>
       <c r="C77">
-        <v>0.06348577849982735</v>
+        <v>0.07370528888897386</v>
       </c>
       <c r="D77">
-        <v>-0.05217512722826222</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06479709641952897</v>
+      </c>
+      <c r="E77">
+        <v>-0.09507028375256689</v>
+      </c>
+      <c r="F77">
+        <v>0.1102504747801556</v>
+      </c>
+      <c r="G77">
+        <v>0.140539999703358</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04712534570195116</v>
+        <v>-0.04378006076609414</v>
       </c>
       <c r="C78">
-        <v>0.05319066553212287</v>
+        <v>0.05944269503258121</v>
       </c>
       <c r="D78">
-        <v>-0.02763032922566338</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06597891170745809</v>
+      </c>
+      <c r="E78">
+        <v>-0.04823120316936083</v>
+      </c>
+      <c r="F78">
+        <v>0.08329176107591885</v>
+      </c>
+      <c r="G78">
+        <v>-0.009856438967236938</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.02801111408766365</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04201663706169179</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.06068220302542852</v>
+      </c>
+      <c r="E79">
+        <v>-0.06638224834299702</v>
+      </c>
+      <c r="F79">
+        <v>0.03052076063465167</v>
+      </c>
+      <c r="G79">
+        <v>-0.07971163664760306</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04309123144407615</v>
+        <v>-0.03292360291511068</v>
       </c>
       <c r="C80">
-        <v>0.05739897436725624</v>
+        <v>0.05570020113574736</v>
       </c>
       <c r="D80">
-        <v>-0.02903862813819699</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04328151104741747</v>
+      </c>
+      <c r="E80">
+        <v>-0.01612688408093451</v>
+      </c>
+      <c r="F80">
+        <v>0.03148720758526046</v>
+      </c>
+      <c r="G80">
+        <v>0.04612101331069612</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1413009138044526</v>
+        <v>-0.1407156469824224</v>
       </c>
       <c r="C81">
-        <v>0.08001830813367485</v>
+        <v>0.09563938289189801</v>
       </c>
       <c r="D81">
-        <v>0.07675539619938841</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.09960402382303485</v>
+      </c>
+      <c r="E81">
+        <v>-0.08509448638524145</v>
+      </c>
+      <c r="F81">
+        <v>0.005321839580949808</v>
+      </c>
+      <c r="G81">
+        <v>-0.0514038275758444</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1643768872336712</v>
+        <v>-0.2056183557147788</v>
       </c>
       <c r="C82">
-        <v>0.07684408085282347</v>
+        <v>0.1412534818264168</v>
       </c>
       <c r="D82">
-        <v>0.1564029063082264</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2294791475559509</v>
+      </c>
+      <c r="E82">
+        <v>-0.01166519997008866</v>
+      </c>
+      <c r="F82">
+        <v>0.1092380858220499</v>
+      </c>
+      <c r="G82">
+        <v>-0.05899313767318161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03873876645835177</v>
+        <v>-0.02691433261095041</v>
       </c>
       <c r="C83">
-        <v>0.03037914892467538</v>
+        <v>0.04249978888928806</v>
       </c>
       <c r="D83">
-        <v>-0.03300659482742525</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03235724831071567</v>
+      </c>
+      <c r="E83">
+        <v>-0.01994246488581506</v>
+      </c>
+      <c r="F83">
+        <v>0.04005353510260853</v>
+      </c>
+      <c r="G83">
+        <v>0.01936899849571333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0002246239870103148</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0009165810510899132</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.001118663759445401</v>
+      </c>
+      <c r="E84">
+        <v>-0.000917351821761967</v>
+      </c>
+      <c r="F84">
+        <v>0.00136364062786048</v>
+      </c>
+      <c r="G84">
+        <v>0.0002307837895667027</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2189399164160197</v>
+        <v>-0.2031326053276614</v>
       </c>
       <c r="C85">
-        <v>0.1031283672396258</v>
+        <v>0.1166091662273837</v>
       </c>
       <c r="D85">
-        <v>0.1200572422702863</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.09648660316738276</v>
+      </c>
+      <c r="E85">
+        <v>0.0007513139325630756</v>
+      </c>
+      <c r="F85">
+        <v>-0.01003214166726539</v>
+      </c>
+      <c r="G85">
+        <v>-0.1268139749097183</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.0102174401769497</v>
+        <v>-0.01115821230285352</v>
       </c>
       <c r="C86">
-        <v>0.0444280517338078</v>
+        <v>0.03117060036964502</v>
       </c>
       <c r="D86">
-        <v>-0.04386977696080815</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.06628714382013182</v>
+      </c>
+      <c r="E86">
+        <v>-0.07099977316191473</v>
+      </c>
+      <c r="F86">
+        <v>0.1242010222328447</v>
+      </c>
+      <c r="G86">
+        <v>0.01063236093762003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02412918877390123</v>
+        <v>-0.0228163333126967</v>
       </c>
       <c r="C87">
-        <v>0.01287217098440681</v>
+        <v>0.01912509761710272</v>
       </c>
       <c r="D87">
-        <v>-0.08859862748859944</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09150122521887252</v>
+      </c>
+      <c r="E87">
+        <v>-0.1170604036607753</v>
+      </c>
+      <c r="F87">
+        <v>0.06365924898608943</v>
+      </c>
+      <c r="G87">
+        <v>0.04139226425605159</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1057388800321194</v>
+        <v>-0.09320780211880027</v>
       </c>
       <c r="C88">
-        <v>0.07157601383541537</v>
+        <v>0.06364658537028611</v>
       </c>
       <c r="D88">
-        <v>0.02310754917443615</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.008469263569989368</v>
+      </c>
+      <c r="E88">
+        <v>-0.04833317912378464</v>
+      </c>
+      <c r="F88">
+        <v>0.06698970789782047</v>
+      </c>
+      <c r="G88">
+        <v>0.02545004293595445</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1881943882153169</v>
+        <v>-0.220335094866187</v>
       </c>
       <c r="C89">
-        <v>-0.3748801514469187</v>
+        <v>-0.3792436185435699</v>
       </c>
       <c r="D89">
-        <v>0.01588584979278155</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.007588074938529285</v>
+      </c>
+      <c r="E89">
+        <v>-0.06845311074525978</v>
+      </c>
+      <c r="F89">
+        <v>0.07620969033319491</v>
+      </c>
+      <c r="G89">
+        <v>0.06141654711164948</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1791999965400058</v>
+        <v>-0.1991291752217186</v>
       </c>
       <c r="C90">
-        <v>-0.3326501971310198</v>
+        <v>-0.3117649657403716</v>
       </c>
       <c r="D90">
-        <v>0.01880067421464832</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01310528841272283</v>
+      </c>
+      <c r="E90">
+        <v>-0.07558982536144042</v>
+      </c>
+      <c r="F90">
+        <v>0.03668739027495906</v>
+      </c>
+      <c r="G90">
+        <v>0.01306208136801863</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1882473077800102</v>
+        <v>-0.1862469076597225</v>
       </c>
       <c r="C91">
-        <v>0.1227049242945639</v>
+        <v>0.1404162990946189</v>
       </c>
       <c r="D91">
-        <v>0.09384557429567915</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1059332258065517</v>
+      </c>
+      <c r="E91">
+        <v>-0.06532780898851227</v>
+      </c>
+      <c r="F91">
+        <v>0.03204913789276127</v>
+      </c>
+      <c r="G91">
+        <v>-0.05806221180337656</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1635224625416913</v>
+        <v>-0.1795304955030186</v>
       </c>
       <c r="C92">
-        <v>-0.2824396616485806</v>
+        <v>-0.2865757840417333</v>
       </c>
       <c r="D92">
-        <v>0.004941849295770028</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.009706218976586377</v>
+      </c>
+      <c r="E92">
+        <v>-0.07419590245439528</v>
+      </c>
+      <c r="F92">
+        <v>0.08109986178252301</v>
+      </c>
+      <c r="G92">
+        <v>0.007712965712294999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2020957222320695</v>
+        <v>-0.2221910512962792</v>
       </c>
       <c r="C93">
-        <v>-0.3359310219880265</v>
+        <v>-0.3187824868754426</v>
       </c>
       <c r="D93">
-        <v>0.01770366679688131</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.006897297976098187</v>
+      </c>
+      <c r="E93">
+        <v>-0.04916383163854026</v>
+      </c>
+      <c r="F93">
+        <v>0.0355903889529039</v>
+      </c>
+      <c r="G93">
+        <v>-0.02802114374838252</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3449212019819514</v>
+        <v>-0.3467739181342844</v>
       </c>
       <c r="C94">
-        <v>0.1467927532075935</v>
+        <v>0.18298291993263</v>
       </c>
       <c r="D94">
-        <v>0.4876418908561858</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.5037084095845856</v>
+      </c>
+      <c r="E94">
+        <v>-0.01908425938837073</v>
+      </c>
+      <c r="F94">
+        <v>-0.445279902309076</v>
+      </c>
+      <c r="G94">
+        <v>0.3475820692500225</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.112800813915443</v>
+        <v>-0.08455172439848346</v>
       </c>
       <c r="C95">
-        <v>0.07629596039678851</v>
+        <v>0.06647958945415221</v>
       </c>
       <c r="D95">
-        <v>-0.1327726860720284</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1684612523992701</v>
+      </c>
+      <c r="E95">
+        <v>0.1049069676962757</v>
+      </c>
+      <c r="F95">
+        <v>0.2669996887704397</v>
+      </c>
+      <c r="G95">
+        <v>0.8527181069718093</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1935691611825812</v>
+        <v>-0.1865338214284525</v>
       </c>
       <c r="C98">
-        <v>0.02046336106293237</v>
+        <v>0.04052600807639734</v>
       </c>
       <c r="D98">
-        <v>-0.1450834652436219</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.184148901400132</v>
+      </c>
+      <c r="E98">
+        <v>0.1541068143062209</v>
+      </c>
+      <c r="F98">
+        <v>-0.03230107494021513</v>
+      </c>
+      <c r="G98">
+        <v>-0.09839095406602318</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.00680295561591233</v>
+        <v>-0.005867277764921947</v>
       </c>
       <c r="C101">
-        <v>0.0321071591369657</v>
+        <v>0.02968650472198861</v>
       </c>
       <c r="D101">
-        <v>0.01667592863591064</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01897226392169026</v>
+      </c>
+      <c r="E101">
+        <v>-0.04353602593079428</v>
+      </c>
+      <c r="F101">
+        <v>0.08153279046415612</v>
+      </c>
+      <c r="G101">
+        <v>-0.01063942137363116</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1219497104793994</v>
+        <v>-0.1248245220409967</v>
       </c>
       <c r="C102">
-        <v>0.07254568474574907</v>
+        <v>0.09876005999255888</v>
       </c>
       <c r="D102">
-        <v>0.02880758590821622</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0453392655196792</v>
+      </c>
+      <c r="E102">
+        <v>0.001631422573589144</v>
+      </c>
+      <c r="F102">
+        <v>0.04688258774215107</v>
+      </c>
+      <c r="G102">
+        <v>-0.01936049002305231</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
